--- a/TestSuites/UploadExcel/TD_WavierCases.xlsx
+++ b/TestSuites/UploadExcel/TD_WavierCases.xlsx
@@ -2994,12 +2994,12 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Created Viax order 7273058 for PriceProposal 24ef3038-888b-4808-9127-af8e42410394</t>
+          <t>Created Viax order 7277622 for PriceProposal 24ef7531-141b-4808-9127-af8e42410938</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>7273058</t>
+          <t>7277622</t>
         </is>
       </c>
       <c r="AF2" s="22" t="inlineStr">
@@ -3019,14 +3019,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef3038-888b-4808-9127-af8e42410394",
+      "submissionId": "24ef7531-141b-4808-9127-af8e42410938",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3075,7 +3075,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273058 for PriceProposal 24ef3038-888b-4808-9127-af8e42410394","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273058","priceProposal":{"uid":"66fbfece-aa75-4412-9b6d-31e083fe540a","biId":"7273058","wAsRelatedOrder":null,"wAsSubmissionId":"24ef3038-888b-4808-9127-af8e42410394","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:53:18.388Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:53:18.421Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef3038-888b-4808-9127-af8e42410394","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"BZ","country":"BZ","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:53:18.953Z"}},"wAsCountryCode":"BZ","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":null,"woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":0,"tax":0,"total":0,"discountAmount":5400,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"BZ","attribute":"wAsCountryCode"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"BZ","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef3038-888b-4808-9127-af8e42410394","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef3038-888b-4808-9127-af8e42410394","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277622 for PriceProposal 24ef7531-141b-4808-9127-af8e42410938","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277622","priceProposal":{"uid":"672093fe-7434-46e0-8761-f52adf89b5e8","biId":"7277622","wAsRelatedOrder":null,"wAsSubmissionId":"24ef7531-141b-4808-9127-af8e42410938","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:51:26.293Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:51:26.335Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef7531-141b-4808-9127-af8e42410938","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"BZ","country":"BZ","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:51:27.137Z"}},"wAsCountryCode":"BZ","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":0,"tax":0,"total":0,"discountAmount":5400,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"BZ","attribute":"wAsCountryCode"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"BZ","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef7531-141b-4808-9127-af8e42410938","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef7531-141b-4808-9127-af8e42410938","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3102,12 +3102,12 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Created Viax order 7273059 for PriceProposal 24ef8615-224b-4808-9127-af8e42410321</t>
+          <t>Created Viax order 7277623 for PriceProposal 24ef9829-732b-4808-9127-af8e42410997</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>7273059</t>
+          <t>7277623</t>
         </is>
       </c>
       <c r="AF3" s="22" t="inlineStr">
@@ -3127,14 +3127,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef8615-224b-4808-9127-af8e42410321",
+      "submissionId": "24ef9829-732b-4808-9127-af8e42410997",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3185,7 +3185,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273059 for PriceProposal 24ef8615-224b-4808-9127-af8e42410321","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273059","priceProposal":{"uid":"66fbff06-30ec-4e7e-9814-fbba920634ee","biId":"7273059","wAsRelatedOrder":null,"wAsSubmissionId":"24ef8615-224b-4808-9127-af8e42410321","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:54:14.554Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:54:14.596Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef8615-224b-4808-9127-af8e42410321","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":["A2OHN"],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"A2OHN","discountType":"WileyPromoCode","discountAmount":540,"discountPercentage":10,"discountDescription":"CRATE PROMO DISCOUNT WITH JOURNAL","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"A2OHN","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:54:15.108Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":null,"woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":4860,"tax":0,"total":4860,"discountAmount":540,"discountPercentage":10,"currencyCode":"USD","allDiscounts":[{"discountCode":"A2OHN","discountType":"WileyPromoCode","discountAmount":540,"discountPercentage":10,"discountDescription":"CRATE PROMO DISCOUNT WITH JOURNAL","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"A2OHN","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"appliedDiscounts":[{"discountCode":"A2OHN","discountType":"WileyPromoCode","discountAmount":540,"discountPercentage":10,"discountDescription":"CRATE PROMO DISCOUNT WITH JOURNAL","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef8615-224b-4808-9127-af8e42410321","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef8615-224b-4808-9127-af8e42410321","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277623 for PriceProposal 24ef9829-732b-4808-9127-af8e42410997","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277623","priceProposal":{"uid":"6720943d-a890-48ee-8c53-559f18a30170","biId":"7277623","wAsRelatedOrder":null,"wAsSubmissionId":"24ef9829-732b-4808-9127-af8e42410997","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:52:29.906Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:52:29.947Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef9829-732b-4808-9127-af8e42410997","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":["A2OHN"],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"A2OHN","discountType":"WileyPromoCode","discountAmount":540,"discountPercentage":10,"discountDescription":"CRATE PROMO DISCOUNT WITH JOURNAL","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"A2OHN","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:52:30.692Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":4860,"tax":0,"total":4860,"discountAmount":540,"discountPercentage":10,"currencyCode":"USD","allDiscounts":[{"discountCode":"A2OHN","discountType":"WileyPromoCode","discountAmount":540,"discountPercentage":10,"discountDescription":"CRATE PROMO DISCOUNT WITH JOURNAL","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"A2OHN","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[{"discountCode":"A2OHN","discountType":"WileyPromoCode","discountAmount":540,"discountPercentage":10,"discountDescription":"CRATE PROMO DISCOUNT WITH JOURNAL","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef9829-732b-4808-9127-af8e42410997","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef9829-732b-4808-9127-af8e42410997","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Created Viax order 7273060 for PriceProposal 24ef4869-831b-4808-9127-af8e42410802</t>
+          <t>Created Viax order 7277624 for PriceProposal 24ef2586-593b-4808-9127-af8e42410645</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>7273060</t>
+          <t>7277624</t>
         </is>
       </c>
       <c r="AF4" s="22" t="inlineStr">
@@ -3237,14 +3237,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef4869-831b-4808-9127-af8e42410802",
+      "submissionId": "24ef2586-593b-4808-9127-af8e42410645",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "f4c16e81-bdcb-4795-9dce-3b36416eb748",
       "sourceSystem": "EM",
       "baseArticleType": "Commentary",
       "displayArticleType": "Commentary(ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3293,7 +3293,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273060 for PriceProposal 24ef4869-831b-4808-9127-af8e42410802","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273060","priceProposal":{"uid":"66fbff41-8384-4b44-97f9-b1b0cb1e659d","biId":"7273060","wAsRelatedOrder":null,"wAsSubmissionId":"24ef4869-831b-4808-9127-af8e42410802","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:55:13.307Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:55:13.350Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef4869-831b-4808-9127-af8e42410802","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"Commentary","displayArticleType":"Commentary(ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"185960","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:55:14.005Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":null,"woadInstitution":null,"prices":[{"basePrice":3850,"price":0,"subtotal":0,"tax":0,"total":0,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":-2887.5,"discountPercentage":-75,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"COMMENTARY","attribute":"wAsBaseArticleType"}]},{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"COMMENTARY","attribute":"wAsBaseArticleType"},{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"185960","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef4869-831b-4808-9127-af8e42410802","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef4869-831b-4808-9127-af8e42410802","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Commentary","wAsDisplayArticleType":"Commentary(ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277624 for PriceProposal 24ef2586-593b-4808-9127-af8e42410645","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277624","priceProposal":{"uid":"6720947c-552a-4e22-83e3-e12025f66317","biId":"7277624","wAsRelatedOrder":null,"wAsSubmissionId":"24ef2586-593b-4808-9127-af8e42410645","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:53:32.066Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:53:32.113Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef2586-593b-4808-9127-af8e42410645","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"Commentary","displayArticleType":"Commentary(ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"185960","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:53:32.852Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":null,"prices":[{"basePrice":3850,"price":0,"subtotal":0,"tax":0,"total":0,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"COMMENTARY","attribute":"wAsBaseArticleType"}]},{"discountCode":"","discountType":"ArticleType","discountAmount":-2887.5,"discountPercentage":-75,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"COMMENTARY","attribute":"wAsBaseArticleType"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"185960","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef2586-593b-4808-9127-af8e42410645","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef2586-593b-4808-9127-af8e42410645","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Commentary","wAsDisplayArticleType":"Commentary(ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Created Viax order 7273061 for PriceProposal 24ef2690-556b-4808-9127-af8e42410356</t>
+          <t>Created Viax order 7277625 for PriceProposal 24ef1298-177b-4808-9127-af8e42410830</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>7273061</t>
+          <t>7277625</t>
         </is>
       </c>
       <c r="AF5" s="22" t="inlineStr">
@@ -3345,14 +3345,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef2690-556b-4808-9127-af8e42410356",
+      "submissionId": "24ef1298-177b-4808-9127-af8e42410830",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3402,7 +3402,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273061 for PriceProposal 24ef2690-556b-4808-9127-af8e42410356","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273061","priceProposal":{"uid":"66fbff7b-6fd5-4d2b-b7c2-f076b26fe235","biId":"7273061","wAsRelatedOrder":null,"wAsSubmissionId":"24ef2690-556b-4808-9127-af8e42410356","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:56:11.663Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:56:11.696Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef2690-556b-4808-9127-af8e42410356","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"editorialDiscountCode":"CWJCSM24","authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:56:12.297Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":null,"woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":0,"tax":0,"total":0,"discountAmount":5400,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"CWJCSM24","attribute":"wAsEditorialDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":"CWJCSM24","biiSalable":{"maId":"24ef2690-556b-4808-9127-af8e42410356","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef2690-556b-4808-9127-af8e42410356","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277625 for PriceProposal 24ef1298-177b-4808-9127-af8e42410830","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277625","priceProposal":{"uid":"6720949b-7211-4195-bb76-de4e33235921","biId":"7277625","wAsRelatedOrder":null,"wAsSubmissionId":"24ef1298-177b-4808-9127-af8e42410830","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:54:03.488Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:54:03.535Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef1298-177b-4808-9127-af8e42410830","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"editorialDiscountCode":"CWJCSM24","authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:54:04.247Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":0,"tax":0,"total":0,"discountAmount":5400,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"CWJCSM24","attribute":"wAsEditorialDiscountCode"}]}],"appliedDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":"CWJCSM24","biiSalable":{"maId":"24ef1298-177b-4808-9127-af8e42410830","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef1298-177b-4808-9127-af8e42410830","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Created Viax order 7273062 for PriceProposal 24ef5243-658b-4808-9127-af8e42410308</t>
+          <t>Created Viax order 7277617 for PriceProposal 24ef7616-131b-4808-9127-af8e42410176</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>7273062</t>
+          <t>7277617</t>
         </is>
       </c>
       <c r="AF6" s="22" t="inlineStr">
@@ -3454,14 +3454,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef5243-658b-4808-9127-af8e42410308",
+      "submissionId": "24ef7616-131b-4808-9127-af8e42410176",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "f4c16e81-bdcb-4795-9dce-3b36416eb748",
       "sourceSystem": "EM",
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3512,7 +3512,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273062 for PriceProposal 24ef5243-658b-4808-9127-af8e42410308","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273062","priceProposal":{"uid":"66fbffb3-4996-4979-b3df-3d78e628c7e4","biId":"7273062","wAsRelatedOrder":null,"wAsSubmissionId":"24ef5243-658b-4808-9127-af8e42410308","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:57:07.675Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:57:07.716Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef5243-658b-4808-9127-af8e42410308","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":["AMVET"],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:57:08.220Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":null,"woadInstitution":null,"prices":[{"basePrice":3850,"price":3850,"subtotal":3272.5,"tax":0,"total":3272.5,"discountAmount":577.5,"discountPercentage":15,"currencyCode":"USD","allDiscounts":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef5243-658b-4808-9127-af8e42410308","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef5243-658b-4808-9127-af8e42410308","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277617 for PriceProposal 24ef7616-131b-4808-9127-af8e42410176","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277617","priceProposal":{"uid":"672092e3-a7b1-4000-be6e-79ea1f189ce5","biId":"7277617","wAsRelatedOrder":null,"wAsSubmissionId":"24ef7616-131b-4808-9127-af8e42410176","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:46:43.502Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:46:43.544Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef7616-131b-4808-9127-af8e42410176","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":["AMVET"],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:46:44.165Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":null,"prices":[{"basePrice":3850,"price":3850,"subtotal":3272.5,"tax":0,"total":3272.5,"discountAmount":577.5,"discountPercentage":15,"currencyCode":"USD","allDiscounts":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"appliedDiscounts":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef7616-131b-4808-9127-af8e42410176","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef7616-131b-4808-9127-af8e42410176","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3539,12 +3539,12 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Created Viax order 7273063 for PriceProposal 24ef2477-317b-4808-9127-af8e42410427</t>
+          <t>Created Viax order 7277618 for PriceProposal 24ef8052-805b-4808-9127-af8e42410801</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>7273063</t>
+          <t>7277618</t>
         </is>
       </c>
       <c r="AF7" s="22" t="inlineStr">
@@ -3564,14 +3564,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef2477-317b-4808-9127-af8e42410427",
+      "submissionId": "24ef8052-805b-4808-9127-af8e42410801",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "f4c16e81-bdcb-4795-9dce-3b36416eb748",
       "sourceSystem": "EM",
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3620,7 +3620,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273063 for PriceProposal 24ef2477-317b-4808-9127-af8e42410427","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273063","priceProposal":{"uid":"66fbffeb-cde1-4e50-a901-fa491d97ab7d","biId":"7273063","wAsRelatedOrder":null,"wAsSubmissionId":"24ef2477-317b-4808-9127-af8e42410427","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:58:03.395Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:58:03.431Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef2477-317b-4808-9127-af8e42410427","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"BZ","country":"BZ","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:58:04.292Z"}},"wAsCountryCode":"BZ","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":3850,"price":3850,"subtotal":0,"tax":0,"total":0,"discountAmount":3850,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":3850,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"BZ","attribute":"wAsCountryCode"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":3850,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"BZ","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef2477-317b-4808-9127-af8e42410427","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef2477-317b-4808-9127-af8e42410427","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277618 for PriceProposal 24ef8052-805b-4808-9127-af8e42410801","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277618","priceProposal":{"uid":"67209303-f1a7-4485-bd20-9981c8ddf1a6","biId":"7277618","wAsRelatedOrder":null,"wAsSubmissionId":"24ef8052-805b-4808-9127-af8e42410801","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:47:15.087Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:47:15.125Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef8052-805b-4808-9127-af8e42410801","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"BZ","country":"BZ","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:47:16.445Z"}},"wAsCountryCode":"BZ","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":3850,"price":3850,"subtotal":0,"tax":0,"total":0,"discountAmount":3850,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":3850,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"BZ","attribute":"wAsCountryCode"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":3850,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"BZ","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef8052-805b-4808-9127-af8e42410801","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef8052-805b-4808-9127-af8e42410801","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3647,12 +3647,12 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Created Viax order 7273064 for PriceProposal 24ef8035-103b-4808-9127-af8e42410537</t>
+          <t>Created Viax order 7277619 for PriceProposal 24ef7457-563b-4808-9127-af8e42410329</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>7273064</t>
+          <t>7277619</t>
         </is>
       </c>
       <c r="AF8" s="22" t="inlineStr">
@@ -3672,14 +3672,14 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef8035-103b-4808-9127-af8e42410537",
+      "submissionId": "24ef7457-563b-4808-9127-af8e42410329",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-29",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3729,7 +3729,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273064 for PriceProposal 24ef8035-103b-4808-9127-af8e42410537","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273064","priceProposal":{"uid":"66fc0024-fafe-4ba9-990d-cbc13bda8598","biId":"7273064","wAsRelatedOrder":null,"wAsSubmissionId":"24ef8035-103b-4808-9127-af8e42410537","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:59:00.226Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:59:00.261Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef8035-103b-4808-9127-af8e42410537","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"editorialDiscountCode":"CWJCSM24","authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:59:01.191Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":0,"tax":0,"total":0,"discountAmount":5400,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"CWJCSM24","attribute":"wAsEditorialDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":"CWJCSM24","biiSalable":{"maId":"24ef8035-103b-4808-9127-af8e42410537","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef8035-103b-4808-9127-af8e42410537","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277619 for PriceProposal 24ef7457-563b-4808-9127-af8e42410329","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277619","priceProposal":{"uid":"67209323-6fbe-4896-850d-e048c2891246","biId":"7277619","wAsRelatedOrder":null,"wAsSubmissionId":"24ef7457-563b-4808-9127-af8e42410329","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:47:47.402Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:47:47.445Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef7457-563b-4808-9127-af8e42410329","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-10-29","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"editorialDiscountCode":"CWJCSM24","authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:47:48.509Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":0,"tax":0,"total":0,"discountAmount":5400,"discountPercentage":100,"currencyCode":"USD","allDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"CWJCSM24","attribute":"wAsEditorialDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[{"discountCode":"CWJCSM24","discountType":"EditorialDiscount","discountAmount":5400,"discountPercentage":100,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":"CWJCSM24","biiSalable":{"maId":"24ef7457-563b-4808-9127-af8e42410329","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef7457-563b-4808-9127-af8e42410329","wAsSubmissionDate":"2024-10-29","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Created Viax order 7273065 for PriceProposal 24ef7240-924b-4808-9127-af8e42410981</t>
+          <t>Created Viax order 7277620 for PriceProposal 24ef3665-905b-4808-9127-af8e42410791</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>7273065</t>
+          <t>7277620</t>
         </is>
       </c>
       <c r="AF9" s="22" t="inlineStr">
@@ -3781,7 +3781,7 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef7240-924b-4808-9127-af8e42410981",
+      "submissionId": "24ef3665-905b-4808-9127-af8e42410791",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "f4c16e81-bdcb-4795-9dce-3b36416eb748",
@@ -3789,7 +3789,7 @@
       "baseArticleType": "Commentary",
       "displayArticleType": "Commentary(ABC)",
       "submissionDate": "2024-04-17",
-      "articleAcceptedDate": "2024-10-01",
+      "articleAcceptedDate": "2024-10-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
       "isManualOverrideRequired": false,
@@ -3837,7 +3837,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273065 for PriceProposal 24ef7240-924b-4808-9127-af8e42410981","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273065","priceProposal":{"uid":"66fc005c-3bbf-4ac3-a41a-f15292818cbe","biId":"7273065","wAsRelatedOrder":null,"wAsSubmissionId":"24ef7240-924b-4808-9127-af8e42410981","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T13:59:56.477Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T13:59:56.520Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef7240-924b-4808-9127-af8e42410981","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"Commentary","displayArticleType":"Commentary(ABC)","submissionDate":"2024-04-17","articleAcceptedDate":"2024-10-01","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T13:59:57.441Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":false,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":3850,"price":0,"subtotal":0,"tax":0,"total":0,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"COMMENTARY","attribute":"wAsBaseArticleType"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef7240-924b-4808-9127-af8e42410981","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef7240-924b-4808-9127-af8e42410981","wAsSubmissionDate":"2024-04-17","wAsAcceptedDate":"2024-10-01","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Commentary","wAsDisplayArticleType":"Commentary(ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7277620 for PriceProposal 24ef3665-905b-4808-9127-af8e42410791","version":"1.4.9-qa2.67","viaxPriceProposalId":"7277620","priceProposal":{"uid":"67209343-1d70-4b63-b641-875bd0506f91","biId":"7277620","wAsRelatedOrder":null,"wAsSubmissionId":"24ef3665-905b-4808-9127-af8e42410791","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-29T07:48:19.619Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-29T07:48:19.674Z","wAsPaymentType":"AuthorPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef3665-905b-4808-9127-af8e42410791","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"Commentary","displayArticleType":"Commentary(ABC)","submissionDate":"2024-04-17","articleAcceptedDate":"2024-10-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-29T07:48:20.908Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":false,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":3850,"price":0,"subtotal":0,"tax":0,"total":0,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"COMMENTARY","attribute":"wAsBaseArticleType"}]}],"appliedDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":3850,"discountPercentage":100,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null}]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef3665-905b-4808-9127-af8e42410791","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef3665-905b-4808-9127-af8e42410791","wAsSubmissionDate":"2024-04-17","wAsAcceptedDate":"2024-10-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Commentary","wAsDisplayArticleType":"Commentary(ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3864,12 +3864,12 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Created Viax order 7273066 for PriceProposal 24ef2482-684b-4808-9127-af8e42410195</t>
+          <t>Created Viax order 7276623 for PriceProposal 24ef5151-758b-4808-9127-af8e42410338</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>7273066</t>
+          <t>7276623</t>
         </is>
       </c>
       <c r="AF10" s="22" t="inlineStr">
@@ -3889,14 +3889,14 @@
   "variables": {
     "data": {
       "requestId": "4a48d9c8-6b6d-4583-b9ac-1836890cb988",
-      "submissionId": "24ef2482-684b-4808-9127-af8e42410195",
+      "submissionId": "24ef5151-758b-4808-9127-af8e42410338",
       "edRefCode": "CAM4-2024-04-1853",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "Education",
       "displayArticleType": "Education (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-23",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -3961,7 +3961,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273066 for PriceProposal 24ef2482-684b-4808-9127-af8e42410195","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273066","priceProposal":{"uid":"66fc0098-4efa-4b6c-b838-7f48fa979fdb","biId":"7273066","wAsRelatedOrder":null,"wAsSubmissionId":"24ef2482-684b-4808-9127-af8e42410195","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:00:56.832Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:00:56.867Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef2482-684b-4808-9127-af8e42410195","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":["PROMO20"],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"USA","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"PROMO20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"PROMO20","attribute":"wAsSelectedSocietyPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:00:57.844Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"PROMO20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"PROMO20","attribute":"wAsSelectedSocietyPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef2482-684b-4808-9127-af8e42410195","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef2482-684b-4808-9127-af8e42410195","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276623 for PriceProposal 24ef5151-758b-4808-9127-af8e42410338","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276623","priceProposal":{"uid":"6718cc68-8927-4410-bc33-1b0fb6275efa","biId":"7276623","wAsRelatedOrder":null,"wAsSubmissionId":"24ef5151-758b-4808-9127-af8e42410338","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:14:00.485Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:14:00.530Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef5151-758b-4808-9127-af8e42410338","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-23","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":["PROMO20"],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"USA","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"PROMO20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"PROMO20","attribute":"wAsSelectedSocietyPercentageDiscountCode"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:14:01.639Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"PROMO20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"PROMO20","attribute":"wAsSelectedSocietyPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef5151-758b-4808-9127-af8e42410338","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef5151-758b-4808-9127-af8e42410338","wAsSubmissionDate":"2024-10-23","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -3988,12 +3988,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Created Viax order 7273067 for PriceProposal 24ef5331-818b-4808-9127-af8e42410396</t>
+          <t>Created Viax order 7276624 for PriceProposal 24ef3238-973b-4808-9127-af8e42410344</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>7273067</t>
+          <t>7276624</t>
         </is>
       </c>
       <c r="AF11" s="22" t="inlineStr">
@@ -4013,14 +4013,14 @@
   "variables": {
     "data": {
       "requestId": "4a48d9c8-6b6d-4583-b9ac-1836890cb988",
-      "submissionId": "24ef5331-818b-4808-9127-af8e42410396",
+      "submissionId": "24ef3238-973b-4808-9127-af8e42410344",
       "edRefCode": "CAM4-2024-04-1853",
       "articleDOI": "",
       "journalId": "f4c16e81-bdcb-4795-9dce-3b36416eb748",
       "sourceSystem": "EM",
       "baseArticleType": "Education",
       "displayArticleType": "Education (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-23",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -4085,7 +4085,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273067 for PriceProposal 24ef5331-818b-4808-9127-af8e42410396","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273067","priceProposal":{"uid":"66fc00d1-2689-478d-8ef5-41e06ca15dfa","biId":"7273067","wAsRelatedOrder":null,"wAsSubmissionId":"24ef5331-818b-4808-9127-af8e42410396","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:01:53.315Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:01:53.357Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef5331-818b-4808-9127-af8e42410396","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":["AMVET"],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"USA","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:01:54.858Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":3850,"price":3850,"subtotal":3850,"tax":0,"total":3850,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"},{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef5331-818b-4808-9127-af8e42410396","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef5331-818b-4808-9127-af8e42410396","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276624 for PriceProposal 24ef3238-973b-4808-9127-af8e42410344","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276624","priceProposal":{"uid":"6718cca6-9366-4ca1-9361-080c70f2011b","biId":"7276624","wAsRelatedOrder":null,"wAsSubmissionId":"24ef3238-973b-4808-9127-af8e42410344","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:15:02.700Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:15:02.755Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef3238-973b-4808-9127-af8e42410344","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"f4c16e81-bdcb-4795-9dce-3b36416eb748","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-23","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":["AMVET"],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"USA","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:15:03.814Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":3850,"price":3850,"subtotal":3850,"tax":0,"total":3850,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"AMVET","discountType":"WileyPromoCode","discountAmount":577.5,"discountPercentage":15,"discountDescription":"MAINTAINING AMVET PROMO CODE","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"AMVET","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"f4c16e81-bdcb-4795-9dce-3b36416eb748","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef3238-973b-4808-9127-af8e42410344","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef3238-973b-4808-9127-af8e42410344","wAsSubmissionDate":"2024-10-23","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JDI","maName":"Journal of Diabetes Investigation","wAsJournalUuid":"f4c16e81-bdcb-4795-9dce-3b36416eb748","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"20401124","wAsFlipDate":"2013-09-23","wAsJournalTitle":"Journal of Diabetes Investigation","wAsJournalGroupCode":"JDI","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"jdi@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -4112,12 +4112,12 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Created Viax order 7273068 for PriceProposal 24ef8378-892b-4808-9127-af8e42410711</t>
+          <t>Created Viax order 7276634 for PriceProposal 24ef7381-521b-4808-9127-af8e42410406</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>7273068</t>
+          <t>7276634</t>
         </is>
       </c>
       <c r="AF12" s="22" t="inlineStr">
@@ -4137,14 +4137,14 @@
   "variables": {
     "data": {
       "requestId": "4a48d9c8-6b6d-4583-b9ac-1836890cb988",
-      "submissionId": "24ef8378-892b-4808-9127-af8e42410711",
+      "submissionId": "24ef7381-521b-4808-9127-af8e42410406",
       "edRefCode": "CAM4-2024-04-1853",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "Education",
       "displayArticleType": "Education (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-23",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -4207,7 +4207,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273068 for PriceProposal 24ef8378-892b-4808-9127-af8e42410711","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273068","priceProposal":{"uid":"66fc010a-a355-46f5-9b8f-75c8f7e057f6","biId":"7273068","wAsRelatedOrder":null,"wAsSubmissionId":"24ef8378-892b-4808-9127-af8e42410711","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:02:50.160Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:02:50.196Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef8378-892b-4808-9127-af8e42410711","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"PY","country":"PY","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:02:51.347Z"}},"wAsCountryCode":"PY","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":2700,"discountPercentage":50,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"PY","attribute":"wAsCountryCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"PY","isPrimary":null}]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef8378-892b-4808-9127-af8e42410711","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef8378-892b-4808-9127-af8e42410711","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276634 for PriceProposal 24ef7381-521b-4808-9127-af8e42410406","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276634","priceProposal":{"uid":"6718cce4-b2e7-4060-8dbc-7fa93ece9efe","biId":"7276634","wAsRelatedOrder":null,"wAsSubmissionId":"24ef7381-521b-4808-9127-af8e42410406","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:16:04.627Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:16:04.686Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef7381-521b-4808-9127-af8e42410406","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-23","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"PY","country":"PY","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:16:05.831Z"}},"wAsCountryCode":"PY","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"GeographicalDiscount","discountAmount":2700,"discountPercentage":50,"discountDescription":"","sapDiscountTableCode":"ZGPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"PY","attribute":"wAsCountryCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"PY","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef7381-521b-4808-9127-af8e42410406","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef7381-521b-4808-9127-af8e42410406","wAsSubmissionDate":"2024-10-23","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Created Viax order 7273069 for PriceProposal 24ef1303-252b-4808-9127-af8e42410904</t>
+          <t>Created Viax order 7276635 for PriceProposal 24ef4396-904b-4808-9127-af8e42410121</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>7273069</t>
+          <t>7276635</t>
         </is>
       </c>
       <c r="AF13" s="22" t="inlineStr">
@@ -4259,14 +4259,14 @@
   "variables": {
     "data": {
       "requestId": "4a48d9c8-6b6d-4583-b9ac-1836890cb988",
-      "submissionId": "24ef1303-252b-4808-9127-af8e42410904",
+      "submissionId": "24ef4396-904b-4808-9127-af8e42410121",
       "edRefCode": "CAM4-2024-04-1853",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "Research Article",
       "displayArticleType": "Research Article(ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-23",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -4329,7 +4329,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273069 for PriceProposal 24ef1303-252b-4808-9127-af8e42410904","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273069","priceProposal":{"uid":"66fc0142-c613-4782-81c0-276f7e072585","biId":"7273069","wAsRelatedOrder":null,"wAsSubmissionId":"24ef1303-252b-4808-9127-af8e42410904","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:03:46.666Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:03:46.703Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef1303-252b-4808-9127-af8e42410904","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Research Article","displayArticleType":"Research Article(ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"US","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:03:47.552Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":540,"discountPercentage":10,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"RESEARCH ARTICLE","attribute":"wAsBaseArticleType"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef1303-252b-4808-9127-af8e42410904","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef1303-252b-4808-9127-af8e42410904","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Research Article","wAsDisplayArticleType":"Research Article(ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276635 for PriceProposal 24ef4396-904b-4808-9127-af8e42410121","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276635","priceProposal":{"uid":"6718cd22-c159-4e6b-92c6-9b7d667f23ca","biId":"7276635","wAsRelatedOrder":null,"wAsSubmissionId":"24ef4396-904b-4808-9127-af8e42410121","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:17:06.919Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:17:06.970Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef4396-904b-4808-9127-af8e42410121","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Research Article","displayArticleType":"Research Article(ABC)","submissionDate":"2024-10-23","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"US","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:17:08.005Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"","discountType":"ArticleType","discountAmount":540,"discountPercentage":10,"discountDescription":null,"sapDiscountTableCode":"ZAPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"RESEARCH ARTICLE","attribute":"wAsBaseArticleType"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef4396-904b-4808-9127-af8e42410121","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef4396-904b-4808-9127-af8e42410121","wAsSubmissionDate":"2024-10-23","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Research Article","wAsDisplayArticleType":"Research Article(ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Created Viax order 7273070 for PriceProposal 24ef3081-495b-4808-9127-af8e42410356</t>
+          <t>Created Viax order 7276636 for PriceProposal 24ef5155-262b-4808-9127-af8e42410313</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>7273070</t>
+          <t>7276636</t>
         </is>
       </c>
       <c r="AF14" s="22" t="inlineStr">
@@ -4381,7 +4381,7 @@
   "variables": {
     "data": {
       "requestId": "e5a1358c-2f36-4d12-8c69-fe0b8c44002a",
-      "submissionId": "24ef3081-495b-4808-9127-af8e42410356",
+      "submissionId": "24ef5155-262b-4808-9127-af8e42410313",
       "edRefCode": "ACN3-2023-06-0432",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
@@ -4389,7 +4389,7 @@
       "baseArticleType": "EDUCATION",
       "displayArticleType": "Research Article (ABC)",
       "submissionDate": "2024-04-17",
-      "articleAcceptedDate": "2024-10-01",
+      "articleAcceptedDate": "2024-10-23",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
       "isManualOverrideRequired": false,
@@ -4438,7 +4438,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273070 for PriceProposal 24ef3081-495b-4808-9127-af8e42410356","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273070","priceProposal":{"uid":"66fc017a-6cf7-445a-93e5-d11a7e0497d3","biId":"7273070","wAsRelatedOrder":null,"wAsSubmissionId":"24ef3081-495b-4808-9127-af8e42410356","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:04:42.839Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:04:42.880Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef3081-495b-4808-9127-af8e42410356","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-04-17","articleAcceptedDate":"2024-10-01","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"editorialDiscountCode":"OWJSY24","authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:04:43.840Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"OWJSY24","discountType":"EditorialDiscount","discountAmount":1674,"discountPercentage":31,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"OWJSY24","attribute":"wAsEditorialDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":"OWJSY24","biiSalable":{"maId":"24ef3081-495b-4808-9127-af8e42410356","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef3081-495b-4808-9127-af8e42410356","wAsSubmissionDate":"2024-04-17","wAsAcceptedDate":"2024-10-01","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276636 for PriceProposal 24ef5155-262b-4808-9127-af8e42410313","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276636","priceProposal":{"uid":"6718cd60-14bc-48a2-8ba3-6cb93c80ea19","biId":"7276636","wAsRelatedOrder":null,"wAsSubmissionId":"24ef5155-262b-4808-9127-af8e42410313","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:18:08.341Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:18:08.391Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"e5a1358c-2f36-4d12-8c69-fe0b8c44002a","submissionId":"24ef5155-262b-4808-9127-af8e42410313","edRefCode":"ACN3-2023-06-0432","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"EDUCATION","displayArticleType":"Research Article (ABC)","submissionDate":"2024-04-17","articleAcceptedDate":"2024-10-23","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":[],"discountCodes":[],"editorialDiscountCode":"OWJSY24","authors":[{"role":"Corresponding Author","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","honorificPrefix":"Mr.","honorificSuffix":"","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"addressLocality":"Aix en Provence","countryCode":"US","country":"US","institution":"Grant Institute","department":"School of GeoSciences","stateProvince":"New Jersey","postalCode":"90210","streetAddress":["1832 Colvin Ave"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:18:09.436Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"OWJSY24","discountType":"EditorialDiscount","discountAmount":1674,"discountPercentage":31,"discountDescription":"","sapDiscountTableCode":"ZEPA","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"OWJSY24","attribute":"wAsEditorialDiscountCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":"Mr.","honorificSuffix":"","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"Grant Institute","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":"OWJSY24","biiSalable":{"maId":"24ef5155-262b-4808-9127-af8e42410313","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"ACN3-2023-06-0432","wAsSubmissionId":"24ef5155-262b-4808-9127-af8e42410313","wAsSubmissionDate":"2024-04-17","wAsAcceptedDate":"2024-10-23","wAsEditorialStatus":"TBC","wAsBaseArticleType":"EDUCATION","wAsDisplayArticleType":"Research Article (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -4465,12 +4465,12 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Created Viax order 7273071 for PriceProposal 24ef7187-864b-4808-9127-af8e42410626</t>
+          <t>Created Viax order 7276637 for PriceProposal 24ef5260-364b-4808-9127-af8e42410997</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>7273071</t>
+          <t>7276637</t>
         </is>
       </c>
       <c r="AF15" s="22" t="inlineStr">
@@ -4490,14 +4490,14 @@
   "variables": {
     "data": {
       "requestId": "4a48d9c8-6b6d-4583-b9ac-1836890cb988",
-      "submissionId": "24ef7187-864b-4808-9127-af8e42410626",
+      "submissionId": "24ef5260-364b-4808-9127-af8e42410997",
       "edRefCode": "CAM4-2024-04-1853",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "Education",
       "displayArticleType": "Education (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-23",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -4562,7 +4562,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273071 for PriceProposal 24ef7187-864b-4808-9127-af8e42410626","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273071","priceProposal":{"uid":"66fc01b3-bb0f-4b79-b0cc-3c4c3d15b1d0","biId":"7273071","wAsRelatedOrder":null,"wAsSubmissionId":"24ef7187-864b-4808-9127-af8e42410626","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:05:39.203Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:05:39.240Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef7187-864b-4808-9127-af8e42410626","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":["WILEY20"],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"US","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"WILEY20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"WILEY20","attribute":"wAsSelectedSocietyPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:05:40.151Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"WILEY20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"WILEY20","attribute":"wAsSelectedSocietyPercentageDiscountCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef7187-864b-4808-9127-af8e42410626","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef7187-864b-4808-9127-af8e42410626","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276637 for PriceProposal 24ef5260-364b-4808-9127-af8e42410997","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276637","priceProposal":{"uid":"6718cd9e-c856-4a43-9efe-6acfeda260e1","biId":"7276637","wAsRelatedOrder":null,"wAsSubmissionId":"24ef5260-364b-4808-9127-af8e42410997","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:19:10.650Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:19:10.691Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef5260-364b-4808-9127-af8e42410997","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-23","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":["WILEY20"],"promoCodes":[],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"US","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"WILEY20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"WILEY20","attribute":"wAsSelectedSocietyPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:19:11.955Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"WILEY20","discountType":"Society","discountAmount":5400,"discountPercentage":100,"discountDescription":"SOCIETY","sapDiscountTableCode":"ZSP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"WILEY20","attribute":"wAsSelectedSocietyPercentageDiscountCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef5260-364b-4808-9127-af8e42410997","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef5260-364b-4808-9127-af8e42410997","wAsSubmissionDate":"2024-10-23","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Created Viax order 7273072 for PriceProposal 24ef5088-839b-4808-9127-af8e42410128</t>
+          <t>Created Viax order 7276644 for PriceProposal 24ef4662-176b-4808-9127-af8e42410894</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>7273072</t>
+          <t>7276644</t>
         </is>
       </c>
       <c r="AF16" s="22" t="inlineStr">
@@ -4614,14 +4614,14 @@
   "variables": {
     "data": {
       "requestId": "4a48d9c8-6b6d-4583-b9ac-1836890cb988",
-      "submissionId": "24ef5088-839b-4808-9127-af8e42410128",
+      "submissionId": "24ef4662-176b-4808-9127-af8e42410894",
       "edRefCode": "CAM4-2024-04-1853",
       "articleDOI": "",
       "journalId": "e1bbb7b4-5369-4c40-a53a-aa3dc55390a6",
       "sourceSystem": "EM",
       "baseArticleType": "Education",
       "displayArticleType": "Education (ABC)",
-      "submissionDate": "2024-10-01",
+      "submissionDate": "2024-10-23",
       "articleAcceptedDate": "2015-09-29",
       "editorialStatus": "TBC",
       "articleTitle": "Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.",
@@ -4686,7 +4686,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7273072 for PriceProposal 24ef5088-839b-4808-9127-af8e42410128","version":"1.4.9-qa2.63","viaxPriceProposalId":"7273072","priceProposal":{"uid":"66fc01eb-6ea9-4cbe-832c-fb4ef2f6832f","biId":"7273072","wAsRelatedOrder":null,"wAsSubmissionId":"24ef5088-839b-4808-9127-af8e42410128","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-01T14:06:35.676Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-01T14:06:35.715Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef5088-839b-4808-9127-af8e42410128","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-01","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":["JAAL"],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"US","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"JAAL","discountType":"WileyPromoCode","discountAmount":5400,"discountPercentage":100,"discountDescription":"PROMO","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"JAAL","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-01T14:06:36.597Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsAuthorFunds":null,"wAsPricing":{"isFunded":true,"availableWorkflowType":"Normal","woadInstitution":null,"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"JAAL","discountType":"WileyPromoCode","discountAmount":5400,"discountPercentage":100,"discountDescription":"PROMO","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"discountContext":[{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"},{"value":"JAAL","attribute":"wAsSelectedPromotionPercentageDiscountCode"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef5088-839b-4808-9127-af8e42410128","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef5088-839b-4808-9127-af8e42410128","wAsSubmissionDate":"2024-10-01","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009x","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
+          <t>{'data': {'testFunction': {'status': 200, 'data': '{"status":"SUCCESS","message":"Created Viax order 7276644 for PriceProposal 24ef4662-176b-4808-9127-af8e42410894","version":"1.4.9-qa2.66","viaxPriceProposalId":"7276644","priceProposal":{"uid":"6718cddf-b0b7-4aad-a01a-15424e77f732","biId":"7276644","wAsRelatedOrder":null,"wAsSubmissionId":"24ef4662-176b-4808-9127-af8e42410894","wAsReasonForReSendStatusChange":null,"wAsReasonForReOpenStatusChange":null,"wAsExpiryDateTime":"2026-04-23T10:20:15.557Z","wAsReopenDateTime":null,"bpStatus":{"code":"PriceDetermined"},"biCreatedAt":"2024-10-23T10:20:15.606Z","wAsPaymentType":"FunderPaid","wAsPriceProposalPayload":{"requestId":"4a48d9c8-6b6d-4583-b9ac-1836890cb988","submissionId":"24ef4662-176b-4808-9127-af8e42410894","edRefCode":"CAM4-2024-04-1853","articleDOI":"","journalId":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","sourceSystem":"EM","baseArticleType":"Education","displayArticleType":"Education (ABC)","submissionDate":"2024-10-23","articleAcceptedDate":"2015-09-29","editorialStatus":"TBC","articleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","isManualOverrideRequired":false,"manualOverrideInstructions":"string","societyCodes":[],"promoCodes":["JAAL"],"discountCodes":[],"wAsManualDiscountAmount":0,"authors":[{"role":"CorrespondingAuthor","authorSequenceNumber":1,"firstName":"Jim","middleName":"M.","lastName":"TESSON","email":"rbenny@wiley.com","affiliationIdType":"Ringgold","affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"orcId":"0000-0003-0888-1984","addressLocality":"Stavnger","countryCode":"US","country":"US","institution":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","department":"SchoolofGeoSciences","stateProvince":"RogalandFylke","postalCode":"4036","streetAddress":["PoBox2554"]}]}],"funders":[{"name":"Bill and Melinda Gates Foundation","funderId":"10.13039/100000865","grants":[{"grantNumber":"124566AA","grantRecipient":["PhilipJ.Cameron-Smith"]}]}]},"wAsOrderUniqueId":null,"wAsOrderStatus":null,"wAsLastEmailDate":null,"wAsSuppressEmail":false,"wAsDiscountCodes":[{"discountCode":"JAAL","discountType":"WileyPromoCode","discountAmount":5400,"discountPercentage":100,"discountDescription":"PROMO","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":false,"discountContext":[{"value":"JAAL","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"auAudit":{"updatedAt":{"dateTime":"2024-10-23T10:20:16.656Z"}},"wAsCountryCode":"US","wAsReferringJournal":null,"wAsReferringJournalRef":null,"wAsValidationErrors":[],"wAsPricing":{"isFunded":true,"woadInstitution":{"institutionId":"2221","institutionName":"Commonwealth Scientific and Industrial Research Organisation","institutionIdType":"Ringgold","woaCode":"CSIR","consortiumCode":"","workflowType":"Normal"},"prices":[{"basePrice":5400,"price":5400,"subtotal":5400,"tax":0,"total":5400,"discountAmount":0,"discountPercentage":0,"currencyCode":"USD","allDiscounts":[{"discountCode":"JAAL","discountType":"WileyPromoCode","discountAmount":5400,"discountPercentage":100,"discountDescription":"PROMO","sapDiscountTableCode":"ZPP1","isPercentageDiscount":true,"isStackedDiscount":null,"institutionId":null,"institutionName":null,"institutionIdType":null,"woaCode":null,"consortiumCode":null,"workflowType":null,"discountContext":[{"value":"JAAL","attribute":"wAsSelectedPromotionPercentageDiscountCode"},{"value":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","attribute":"wAsJournalUuid"}]}],"appliedDiscounts":[]}]},"wAsBillingDetails":[],"wAsManualDiscountAmount":null,"wAsManualOverrideRequired":false,"wAsManualDiscountPercentage":null,"wAsManualOverrideInstructions":"string","wAsManualOverrideAppliedTime":null,"wAsCorrespondingAuthor":{"orcId":null,"firstName":"Jim","lastName":"TESSON","email":"rbenny@wiley.com","isResponsible":false,"affiliationIdType":"Ringgold","honorificPrefix":null,"honorificSuffix":null,"affiliations":[{"affiliationIds":[{"institutionId":"2221","institutionIdType":"Ringgold"}],"affiliationName":"UNIVERSITY COLLEGE CORK NATIONAL UNIVERSITY OF IRELAND","countryCode":"US","isPrimary":null}],"authorFunds":[]},"wAsResearchFunders":[{"funderId":"10.13039/100000865","name":"Bill and Melinda Gates Foundation","researchGrants":[{"grantNumber":"124566AA","grantRecipients":["PhilipJ.Cameron-Smith"]}]}],"attAttachments":[],"hiConsistsOf":[{"wAsEditorialDiscountCode":null,"biiSalable":{"maId":"24ef4662-176b-4808-9127-af8e42410894","wAsArticleId":null,"wAsArticleDoi":"","wAsArticleTitle":"Seismic slip history of the Pizzalto fault (Central Apennines Italy) using in situ-produced Clcosmic ray exposure dating and rare earth element concentrations.","wAsManuscriptId":"CAM4-2024-04-1853","wAsSubmissionId":"24ef4662-176b-4808-9127-af8e42410894","wAsSubmissionDate":"2024-10-23","wAsAcceptedDate":"2015-09-29","wAsEditorialStatus":"TBC","wAsBaseArticleType":"Education","wAsDisplayArticleType":"Education (ABC)","ibrProduct":{"maId":"JCSM","maName":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalUuid":"e1bbb7b4-5369-4c40-a53a-aa3dc55390a6","wAsNewJournalRevenueModel":"OA","wAsJournalEISSN":"21906009","wAsFlipDate":null,"wAsJournalTitle":"Journal of Cachexia, Sarcopenia and Muscle","wAsJournalGroupCode":"JCSM","wAsJournalOwnership":null,"wAsJournalStatus":"Yes","wAsEditorialOfficeEmail":"JCSM1@wiley.com"}}}]}}'}}}</t>
         </is>
       </c>
     </row>
